--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_64.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,670 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:00:56.600000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'F#'], ['E', 'E', 'B/3']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B'], ['A', 'A', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(71.384512, 77.839659), (4.383333, 11.07068)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(35.172993, 42.127369), (16.585419, 21.24102)]</t>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.220000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[('0:00:39.800000', '0:00:48.280000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.08, 11.7)]</t>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1177,9 @@
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(25.26, 36.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
